--- a/Assets/Data/Excel/Text.xlsx
+++ b/Assets/Data/Excel/Text.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\LeftInHell\LeftInHell\Assets\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF217F1-7552-4435-BF4D-6FC0BDD7D5FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D58D19-006E-4A3D-9CC2-62809A101CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31560" yWindow="3360" windowWidth="18360" windowHeight="11385" xr2:uid="{179D1B9E-186B-4A67-88E8-5681ADC5005C}"/>
+    <workbookView xWindow="11280" yWindow="4845" windowWidth="17265" windowHeight="11385" xr2:uid="{179D1B9E-186B-4A67-88E8-5681ADC5005C}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>ID(int)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,6 +49,10 @@
   </si>
   <si>
     <t>천</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템박스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -422,7 +426,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63624265-BA87-46FA-BA18-080C2A4EB13E}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -457,6 +461,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
